--- a/files/Assignment_DA_1_data.xlsx
+++ b/files/Assignment_DA_1_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian.Beder\Documents\python-workspace\Decision Analytics\2019_2020_S2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay Raj\Downloads\Assignment Work\06. Decision Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B190EB4-746D-425D-8AC3-BF1C05DB60BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC844D3-8B19-4CD3-A2D5-EA1A411A53BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
   <si>
     <t>Job A</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>M12</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Contractor</t>
   </si>
 </sst>
 </file>
@@ -488,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4794B8AB-79DC-41EF-8D99-F035C9741B5F}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,6 +504,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -679,9 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -689,6 +696,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -875,12 +885,15 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -981,9 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE73F9-4E23-4102-B24B-F4FE2F5AC038}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -991,6 +1002,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
